--- a/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/167.xlsx
+++ b/clientes/Quantum Engenharia Elétrica Ltda/Orcamentos/São José - Páscoa/167.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68611B8A-58FF-4253-A317-7572EC9435A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85165709-8745-47D0-9045-DC6242543D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>Quantum Engenharia Elétrica Ltda</t>
   </si>
   <si>
-    <t>14/02/2023</t>
+    <t>Locação</t>
   </si>
   <si>
     <t>PRAÇA ARNOLDO DE SOUZA</t>
@@ -1008,9 +1008,6 @@
     <t>2 para os PVCs e 1 para guirlanda</t>
   </si>
   <si>
-    <t>C:\github\myxlsm\orcamentosParaClientes\OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx</t>
-  </si>
-  <si>
     <t>Contato 1</t>
   </si>
   <si>
@@ -1023,13 +1020,16 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>C:\github\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\164.xlsx</t>
-  </si>
-  <si>
-    <t>Venda</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentosparaclientes\São José - Páscoa\166.xlsx</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentos\São José - Páscoa\166.xlsx</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\clientes\Quantum Engenharia Elétrica Ltda\orcamentosparaclientes\São José - Páscoa\167.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1431,22 +1431,25 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>319</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>320</v>
-      </c>
-      <c r="J2" t="s">
-        <v>324</v>
+      <c r="K2" t="s">
+        <v>325</v>
       </c>
       <c r="L2">
         <v>500</v>
@@ -1455,7 +1458,7 @@
         <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -1578,9 +1581,9 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C7A67-8CB9-4147-B05D-B3083ED33ED2}">
   <sheetPr codeName="Planilha11"/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2512,7 +2515,7 @@
         <v>256</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M30" si="4">C25*H25</f>
+        <f>C25*H25</f>
         <v>679.89</v>
       </c>
     </row>
@@ -2551,7 +2554,7 @@
         <v>137</v>
       </c>
       <c r="M26">
-        <f t="shared" si="4"/>
+        <f>C26*H26</f>
         <v>679.89</v>
       </c>
     </row>
@@ -2590,7 +2593,7 @@
         <v>141</v>
       </c>
       <c r="M27">
-        <f t="shared" si="4"/>
+        <f>C27*H27</f>
         <v>634.6</v>
       </c>
     </row>
@@ -2629,7 +2632,7 @@
         <v>260</v>
       </c>
       <c r="M28">
-        <f t="shared" si="4"/>
+        <f>C28*H28</f>
         <v>634.6</v>
       </c>
     </row>
@@ -2662,26 +2665,8 @@
         <v>112</v>
       </c>
       <c r="M29">
-        <f t="shared" si="4"/>
+        <f>C29*H29</f>
         <v>1430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>325</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4696,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4719,7 +4704,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4717,7 @@
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
